--- a/test/out/edges.xlsx
+++ b/test/out/edges.xlsx
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0.28126755</v>
+        <v>0.03205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.2451439725</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0.199093305</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0.58238928</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>0.1111282575</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4262439074273412</v>
+        <v>0.04599928238249013</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.07363621009964534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0.137914289182955</v>
+        <v>0.04427700035880876</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.2398511302475781</v>
+        <v>0.1677072120559742</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.1160938809723387</v>
+        <v>0.008611410118406888</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0.6836761864549907</v>
+        <v>0.08613409896976862</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0.03783144739064347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>0.0960986319878399</v>
+        <v>0.05826718459719642</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0.1476378990035467</v>
+        <v>0.09356527613578787</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>0.0490360435875943</v>
+        <v>0.001688903901368012</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0.983563002306665</v>
+        <v>0.04176277771033143</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0.2105135364817288</v>
+        <v>0.07490591234672818</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>0.2484377638912346</v>
+        <v>0.04188418113390797</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>0.9340773339808184</v>
+        <v>0.7006191574602404</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -692,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>0.248742665549036</v>
+        <v>0.007527012261745781</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.6300944625</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>0.2063867958378185</v>
+        <v>0.11685</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -734,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>0.1864549907110286</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>0.7540366638339201</v>
+        <v>0.28855</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -762,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>0.1613579212070411</v>
+        <v>0.01095</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>0.1259724329421626</v>
+        <v>0.005029337803855826</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>0.04233025984911987</v>
+        <v>0.02514668901927913</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.01990779547359598</v>
+        <v>0.002095557418273261</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>0.03101424979044426</v>
+        <v>0.01299245599329422</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>0.07223575020955575</v>
+        <v>0.04589270746018441</v>
       </c>
     </row>
   </sheetData>
